--- a/block-stride/block-stride-MPIDataType.xlsx
+++ b/block-stride/block-stride-MPIDataType.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26820" yWindow="8260" windowWidth="28160" windowHeight="17440"/>
+    <workbookView xWindow="23040" yWindow="8260" windowWidth="28160" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="CPU1" sheetId="1" r:id="rId1"/>
@@ -2784,7 +2784,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3590,7 +3590,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
